--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hp-Cd163.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hp-Cd163.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Hp</t>
+  </si>
+  <si>
+    <t>Cd163</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Hp</t>
-  </si>
-  <si>
-    <t>Cd163</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.014807333333333</v>
+        <v>0.8909086666666667</v>
       </c>
       <c r="H2">
-        <v>3.044422</v>
+        <v>2.672726</v>
       </c>
       <c r="I2">
-        <v>0.02166037622173753</v>
+        <v>0.03117145726690431</v>
       </c>
       <c r="J2">
-        <v>0.02166037622173753</v>
+        <v>0.0311714572669043</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.251791</v>
       </c>
       <c r="O2">
-        <v>0.005739190379624315</v>
+        <v>0.01308107600943097</v>
       </c>
       <c r="P2">
-        <v>0.005739190379624315</v>
+        <v>0.01308107600943097</v>
       </c>
       <c r="Q2">
-        <v>0.08517311775577778</v>
+        <v>0.07477426136288888</v>
       </c>
       <c r="R2">
-        <v>0.766558059802</v>
+        <v>0.6729683522659999</v>
       </c>
       <c r="S2">
-        <v>0.0001243130228308393</v>
+        <v>0.0004077562018331046</v>
       </c>
       <c r="T2">
-        <v>0.0001243130228308393</v>
+        <v>0.0004077562018331045</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.014807333333333</v>
+        <v>0.8909086666666667</v>
       </c>
       <c r="H3">
-        <v>3.044422</v>
+        <v>2.672726</v>
       </c>
       <c r="I3">
-        <v>0.02166037622173753</v>
+        <v>0.03117145726690431</v>
       </c>
       <c r="J3">
-        <v>0.02166037622173753</v>
+        <v>0.0311714572669043</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.810562000000001</v>
+        <v>2.908847666666666</v>
       </c>
       <c r="N3">
-        <v>23.431686</v>
+        <v>8.726542999999999</v>
       </c>
       <c r="O3">
-        <v>0.5340894109383487</v>
+        <v>0.4533624008902931</v>
       </c>
       <c r="P3">
-        <v>0.5340894109383487</v>
+        <v>0.4533624008902929</v>
       </c>
       <c r="Q3">
-        <v>7.926215595054668</v>
+        <v>2.591517596246444</v>
       </c>
       <c r="R3">
-        <v>71.33594035549201</v>
+        <v>23.323658366218</v>
       </c>
       <c r="S3">
-        <v>0.01156857757697081</v>
+        <v>0.01413196670577291</v>
       </c>
       <c r="T3">
-        <v>0.01156857757697081</v>
+        <v>0.0141319667057729</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.014807333333333</v>
+        <v>0.8909086666666667</v>
       </c>
       <c r="H4">
-        <v>3.044422</v>
+        <v>2.672726</v>
       </c>
       <c r="I4">
-        <v>0.02166037622173753</v>
+        <v>0.03117145726690431</v>
       </c>
       <c r="J4">
-        <v>0.02166037622173753</v>
+        <v>0.0311714572669043</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5057886666666667</v>
+        <v>0.6090526666666666</v>
       </c>
       <c r="N4">
-        <v>1.517366</v>
+        <v>1.827158</v>
       </c>
       <c r="O4">
-        <v>0.03458603504322644</v>
+        <v>0.09492472995158634</v>
       </c>
       <c r="P4">
-        <v>0.03458603504322644</v>
+        <v>0.09492472995158631</v>
       </c>
       <c r="Q4">
-        <v>0.5132780480502223</v>
+        <v>0.5426102991897777</v>
       </c>
       <c r="R4">
-        <v>4.619502432452</v>
+        <v>4.883492692708</v>
       </c>
       <c r="S4">
-        <v>0.0007491465310544828</v>
+        <v>0.002958942163258305</v>
       </c>
       <c r="T4">
-        <v>0.0007491465310544827</v>
+        <v>0.002958942163258304</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.014807333333333</v>
+        <v>0.8909086666666667</v>
       </c>
       <c r="H5">
-        <v>3.044422</v>
+        <v>2.672726</v>
       </c>
       <c r="I5">
-        <v>0.02166037622173753</v>
+        <v>0.03117145726690431</v>
       </c>
       <c r="J5">
-        <v>0.02166037622173753</v>
+        <v>0.0311714572669043</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.223791000000001</v>
+        <v>2.814333666666667</v>
       </c>
       <c r="N5">
-        <v>18.671373</v>
+        <v>8.443001000000001</v>
       </c>
       <c r="O5">
-        <v>0.4255853636388005</v>
+        <v>0.4386317931486897</v>
       </c>
       <c r="P5">
-        <v>0.4255853636388005</v>
+        <v>0.4386317931486896</v>
       </c>
       <c r="Q5">
-        <v>6.315948747934002</v>
+        <v>2.507314254525111</v>
       </c>
       <c r="R5">
-        <v>56.84353873140601</v>
+        <v>22.565828290726</v>
       </c>
       <c r="S5">
-        <v>0.009218339090881393</v>
+        <v>0.01367279219603999</v>
       </c>
       <c r="T5">
-        <v>0.009218339090881392</v>
+        <v>0.01367279219603998</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -794,10 +794,10 @@
         <v>45.081112</v>
       </c>
       <c r="I6">
-        <v>0.3207419491825661</v>
+        <v>0.5257717986252713</v>
       </c>
       <c r="J6">
-        <v>0.3207419491825661</v>
+        <v>0.5257717986252713</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -812,10 +812,10 @@
         <v>0.251791</v>
       </c>
       <c r="O6">
-        <v>0.005739190379624315</v>
+        <v>0.01308107600943097</v>
       </c>
       <c r="P6">
-        <v>0.005739190379624315</v>
+        <v>0.01308107600943097</v>
       </c>
       <c r="Q6">
         <v>1.261224252399111</v>
@@ -824,10 +824,10 @@
         <v>11.351018271592</v>
       </c>
       <c r="S6">
-        <v>0.001840799109090535</v>
+        <v>0.00687766086143241</v>
       </c>
       <c r="T6">
-        <v>0.001840799109090534</v>
+        <v>0.006877660861432407</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -856,10 +856,10 @@
         <v>45.081112</v>
       </c>
       <c r="I7">
-        <v>0.3207419491825661</v>
+        <v>0.5257717986252713</v>
       </c>
       <c r="J7">
-        <v>0.3207419491825661</v>
+        <v>0.5257717986252713</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.810562000000001</v>
+        <v>2.908847666666666</v>
       </c>
       <c r="N7">
-        <v>23.431686</v>
+        <v>8.726542999999999</v>
       </c>
       <c r="O7">
-        <v>0.5340894109383487</v>
+        <v>0.4533624008902931</v>
       </c>
       <c r="P7">
-        <v>0.5340894109383487</v>
+        <v>0.4533624008902929</v>
       </c>
       <c r="Q7">
-        <v>117.3696067683147</v>
+        <v>43.71136248397956</v>
       </c>
       <c r="R7">
-        <v>1056.326460914832</v>
+        <v>393.402262355816</v>
       </c>
       <c r="S7">
-        <v>0.1713048787021345</v>
+        <v>0.2383651649451607</v>
       </c>
       <c r="T7">
-        <v>0.1713048787021345</v>
+        <v>0.2383651649451606</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>45.081112</v>
       </c>
       <c r="I8">
-        <v>0.3207419491825661</v>
+        <v>0.5257717986252713</v>
       </c>
       <c r="J8">
-        <v>0.3207419491825661</v>
+        <v>0.5257717986252713</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5057886666666667</v>
+        <v>0.6090526666666666</v>
       </c>
       <c r="N8">
-        <v>1.517366</v>
+        <v>1.827158</v>
       </c>
       <c r="O8">
-        <v>0.03458603504322644</v>
+        <v>0.09492472995158634</v>
       </c>
       <c r="P8">
-        <v>0.03458603504322644</v>
+        <v>0.09492472995158631</v>
       </c>
       <c r="Q8">
-        <v>7.600505176776888</v>
+        <v>9.152257159966222</v>
       </c>
       <c r="R8">
-        <v>68.404546590992</v>
+        <v>82.370314439696</v>
       </c>
       <c r="S8">
-        <v>0.01109319229426099</v>
+        <v>0.04990874600066372</v>
       </c>
       <c r="T8">
-        <v>0.01109319229426098</v>
+        <v>0.0499087460006637</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>45.081112</v>
       </c>
       <c r="I9">
-        <v>0.3207419491825661</v>
+        <v>0.5257717986252713</v>
       </c>
       <c r="J9">
-        <v>0.3207419491825661</v>
+        <v>0.5257717986252713</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.223791000000001</v>
+        <v>2.814333666666667</v>
       </c>
       <c r="N9">
-        <v>18.671373</v>
+        <v>8.443001000000001</v>
       </c>
       <c r="O9">
-        <v>0.4255853636388005</v>
+        <v>0.4386317931486897</v>
       </c>
       <c r="P9">
-        <v>0.4255853636388005</v>
+        <v>0.4386317931486896</v>
       </c>
       <c r="Q9">
-        <v>93.52513971186401</v>
+        <v>42.29109707745689</v>
       </c>
       <c r="R9">
-        <v>841.7262574067761</v>
+        <v>380.619873697112</v>
       </c>
       <c r="S9">
-        <v>0.1365030790770801</v>
+        <v>0.2306202268180145</v>
       </c>
       <c r="T9">
-        <v>0.13650307907708</v>
+        <v>0.2306202268180145</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.246574333333334</v>
+        <v>12.47652966666667</v>
       </c>
       <c r="H10">
-        <v>9.739723000000001</v>
+        <v>37.429589</v>
       </c>
       <c r="I10">
-        <v>0.06929593350577223</v>
+        <v>0.436533649177391</v>
       </c>
       <c r="J10">
-        <v>0.06929593350577223</v>
+        <v>0.436533649177391</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1060,22 +1060,22 @@
         <v>0.251791</v>
       </c>
       <c r="O10">
-        <v>0.005739190379624315</v>
+        <v>0.01308107600943097</v>
       </c>
       <c r="P10">
-        <v>0.005739190379624315</v>
+        <v>0.01308107600943097</v>
       </c>
       <c r="Q10">
-        <v>0.2724860659881111</v>
+        <v>1.047159293766555</v>
       </c>
       <c r="R10">
-        <v>2.452374593893</v>
+        <v>9.424433643899</v>
       </c>
       <c r="S10">
-        <v>0.0003977025549234143</v>
+        <v>0.005710329845563725</v>
       </c>
       <c r="T10">
-        <v>0.0003977025549234142</v>
+        <v>0.005710329845563724</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1083,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.246574333333334</v>
+        <v>12.47652966666667</v>
       </c>
       <c r="H11">
-        <v>9.739723000000001</v>
+        <v>37.429589</v>
       </c>
       <c r="I11">
-        <v>0.06929593350577223</v>
+        <v>0.436533649177391</v>
       </c>
       <c r="J11">
-        <v>0.06929593350577223</v>
+        <v>0.436533649177391</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.810562000000001</v>
+        <v>2.908847666666666</v>
       </c>
       <c r="N11">
-        <v>23.431686</v>
+        <v>8.726542999999999</v>
       </c>
       <c r="O11">
-        <v>0.5340894109383487</v>
+        <v>0.4533624008902931</v>
       </c>
       <c r="P11">
-        <v>0.5340894109383487</v>
+        <v>0.4533624008902929</v>
       </c>
       <c r="Q11">
-        <v>25.35757011810867</v>
+        <v>36.29232420898077</v>
       </c>
       <c r="R11">
-        <v>228.2181310629781</v>
+        <v>326.630917880827</v>
       </c>
       <c r="S11">
-        <v>0.03701022430652087</v>
+        <v>0.1979079432604629</v>
       </c>
       <c r="T11">
-        <v>0.03701022430652087</v>
+        <v>0.1979079432604628</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,14 +1145,14 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.246574333333334</v>
+        <v>12.47652966666667</v>
       </c>
       <c r="H12">
-        <v>9.739723000000001</v>
+        <v>37.429589</v>
       </c>
       <c r="I12">
-        <v>0.06929593350577223</v>
+        <v>0.436533649177391</v>
       </c>
       <c r="J12">
-        <v>0.06929593350577223</v>
+        <v>0.436533649177391</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5057886666666667</v>
+        <v>0.6090526666666666</v>
       </c>
       <c r="N12">
-        <v>1.517366</v>
+        <v>1.827158</v>
       </c>
       <c r="O12">
-        <v>0.03458603504322644</v>
+        <v>0.09492472995158634</v>
       </c>
       <c r="P12">
-        <v>0.03458603504322644</v>
+        <v>0.09492472995158631</v>
       </c>
       <c r="Q12">
-        <v>1.642080503290889</v>
+        <v>7.59886366422911</v>
       </c>
       <c r="R12">
-        <v>14.778724529618</v>
+        <v>68.389772978062</v>
       </c>
       <c r="S12">
-        <v>0.002396671584583728</v>
+        <v>0.04143783876294437</v>
       </c>
       <c r="T12">
-        <v>0.002396671584583727</v>
+        <v>0.04143783876294435</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,13 +1207,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.246574333333334</v>
+        <v>12.47652966666667</v>
       </c>
       <c r="H13">
-        <v>9.739723000000001</v>
+        <v>37.429589</v>
       </c>
       <c r="I13">
-        <v>0.06929593350577223</v>
+        <v>0.436533649177391</v>
       </c>
       <c r="J13">
-        <v>0.06929593350577223</v>
+        <v>0.436533649177391</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.223791000000001</v>
+        <v>2.814333666666667</v>
       </c>
       <c r="N13">
-        <v>18.671373</v>
+        <v>8.443001000000001</v>
       </c>
       <c r="O13">
-        <v>0.4255853636388005</v>
+        <v>0.4386317931486897</v>
       </c>
       <c r="P13">
-        <v>0.4255853636388005</v>
+        <v>0.4386317931486896</v>
       </c>
       <c r="Q13">
-        <v>20.20600011663101</v>
+        <v>35.11311748406544</v>
       </c>
       <c r="R13">
-        <v>181.8540010496791</v>
+        <v>316.018057356589</v>
       </c>
       <c r="S13">
-        <v>0.02949133505974422</v>
+        <v>0.19147753730842</v>
       </c>
       <c r="T13">
-        <v>0.02949133505974421</v>
+        <v>0.19147753730842</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>23</v>
       </c>
       <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.08632266666666666</v>
+        <v>0.186436</v>
       </c>
       <c r="H14">
-        <v>0.258968</v>
+        <v>0.559308</v>
       </c>
       <c r="I14">
-        <v>0.001842498940485558</v>
+        <v>0.006523094930433466</v>
       </c>
       <c r="J14">
-        <v>0.001842498940485558</v>
+        <v>0.006523094930433466</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1308,22 +1308,22 @@
         <v>0.251791</v>
       </c>
       <c r="O14">
-        <v>0.005739190379624315</v>
+        <v>0.01308107600943097</v>
       </c>
       <c r="P14">
-        <v>0.005739190379624315</v>
+        <v>0.01308107600943097</v>
       </c>
       <c r="Q14">
-        <v>0.007245090187555554</v>
+        <v>0.01564763562533333</v>
       </c>
       <c r="R14">
-        <v>0.06520581168799999</v>
+        <v>0.140828720628</v>
       </c>
       <c r="S14">
-        <v>1.057445219370271E-05</v>
+        <v>8.5329100601734E-05</v>
       </c>
       <c r="T14">
-        <v>1.057445219370271E-05</v>
+        <v>8.532910060173398E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
         <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.08632266666666666</v>
+        <v>0.186436</v>
       </c>
       <c r="H15">
-        <v>0.258968</v>
+        <v>0.559308</v>
       </c>
       <c r="I15">
-        <v>0.001842498940485558</v>
+        <v>0.006523094930433466</v>
       </c>
       <c r="J15">
-        <v>0.001842498940485558</v>
+        <v>0.006523094930433466</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.810562000000001</v>
+        <v>2.908847666666666</v>
       </c>
       <c r="N15">
-        <v>23.431686</v>
+        <v>8.726542999999999</v>
       </c>
       <c r="O15">
-        <v>0.5340894109383487</v>
+        <v>0.4533624008902931</v>
       </c>
       <c r="P15">
-        <v>0.5340894109383487</v>
+        <v>0.4533624008902929</v>
       </c>
       <c r="Q15">
-        <v>0.6742285400053334</v>
+        <v>0.5423139235826667</v>
       </c>
       <c r="R15">
-        <v>6.068056860048</v>
+        <v>4.880825312244</v>
       </c>
       <c r="S15">
-        <v>0.0009840591737784632</v>
+        <v>0.002957325978896615</v>
       </c>
       <c r="T15">
-        <v>0.0009840591737784632</v>
+        <v>0.002957325978896615</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>23</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,46 +1408,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.08632266666666666</v>
+        <v>0.186436</v>
       </c>
       <c r="H16">
-        <v>0.258968</v>
+        <v>0.559308</v>
       </c>
       <c r="I16">
-        <v>0.001842498940485558</v>
+        <v>0.006523094930433466</v>
       </c>
       <c r="J16">
-        <v>0.001842498940485558</v>
+        <v>0.006523094930433466</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.5057886666666667</v>
+        <v>0.6090526666666666</v>
       </c>
       <c r="N16">
-        <v>1.517366</v>
+        <v>1.827158</v>
       </c>
       <c r="O16">
-        <v>0.03458603504322644</v>
+        <v>0.09492472995158634</v>
       </c>
       <c r="P16">
-        <v>0.03458603504322644</v>
+        <v>0.09492472995158631</v>
       </c>
       <c r="Q16">
-        <v>0.04366102647644444</v>
+        <v>0.1135493429626667</v>
       </c>
       <c r="R16">
-        <v>0.3929492382879999</v>
+        <v>1.021944086664</v>
       </c>
       <c r="S16">
-        <v>6.37247329227411E-05</v>
+        <v>0.0006192030247199586</v>
       </c>
       <c r="T16">
-        <v>6.372473292274108E-05</v>
+        <v>0.0006192030247199584</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,13 +1455,13 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1470,16 +1470,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.08632266666666666</v>
+        <v>0.186436</v>
       </c>
       <c r="H17">
-        <v>0.258968</v>
+        <v>0.559308</v>
       </c>
       <c r="I17">
-        <v>0.001842498940485558</v>
+        <v>0.006523094930433466</v>
       </c>
       <c r="J17">
-        <v>0.001842498940485558</v>
+        <v>0.006523094930433466</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,276 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.223791000000001</v>
+        <v>2.814333666666667</v>
       </c>
       <c r="N17">
-        <v>18.671373</v>
+        <v>8.443001000000001</v>
       </c>
       <c r="O17">
-        <v>0.4255853636388005</v>
+        <v>0.4386317931486897</v>
       </c>
       <c r="P17">
-        <v>0.4255853636388005</v>
+        <v>0.4386317931486896</v>
       </c>
       <c r="Q17">
-        <v>0.5372542358960001</v>
+        <v>0.5246931114786667</v>
       </c>
       <c r="R17">
-        <v>4.835288123064</v>
+        <v>4.722238003308001</v>
       </c>
       <c r="S17">
-        <v>0.0007841405815906508</v>
+        <v>0.002861236826215158</v>
       </c>
       <c r="T17">
-        <v>0.0007841405815906506</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>27.476122</v>
-      </c>
-      <c r="H18">
-        <v>82.428366</v>
-      </c>
-      <c r="I18">
-        <v>0.5864592421494386</v>
-      </c>
-      <c r="J18">
-        <v>0.5864592421494386</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.08393033333333333</v>
-      </c>
-      <c r="N18">
-        <v>0.251791</v>
-      </c>
-      <c r="O18">
-        <v>0.005739190379624315</v>
-      </c>
-      <c r="P18">
-        <v>0.005739190379624315</v>
-      </c>
-      <c r="Q18">
-        <v>2.306080078167333</v>
-      </c>
-      <c r="R18">
-        <v>20.754720703506</v>
-      </c>
-      <c r="S18">
-        <v>0.003365801240585825</v>
-      </c>
-      <c r="T18">
-        <v>0.003365801240585824</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>27.476122</v>
-      </c>
-      <c r="H19">
-        <v>82.428366</v>
-      </c>
-      <c r="I19">
-        <v>0.5864592421494386</v>
-      </c>
-      <c r="J19">
-        <v>0.5864592421494386</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>7.810562000000001</v>
-      </c>
-      <c r="N19">
-        <v>23.431686</v>
-      </c>
-      <c r="O19">
-        <v>0.5340894109383487</v>
-      </c>
-      <c r="P19">
-        <v>0.5340894109383487</v>
-      </c>
-      <c r="Q19">
-        <v>214.603954400564</v>
-      </c>
-      <c r="R19">
-        <v>1931.435589605076</v>
-      </c>
-      <c r="S19">
-        <v>0.3132216711789441</v>
-      </c>
-      <c r="T19">
-        <v>0.3132216711789441</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G20">
-        <v>27.476122</v>
-      </c>
-      <c r="H20">
-        <v>82.428366</v>
-      </c>
-      <c r="I20">
-        <v>0.5864592421494386</v>
-      </c>
-      <c r="J20">
-        <v>0.5864592421494386</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M20">
-        <v>0.5057886666666667</v>
-      </c>
-      <c r="N20">
-        <v>1.517366</v>
-      </c>
-      <c r="O20">
-        <v>0.03458603504322644</v>
-      </c>
-      <c r="P20">
-        <v>0.03458603504322644</v>
-      </c>
-      <c r="Q20">
-        <v>13.89711111155067</v>
-      </c>
-      <c r="R20">
-        <v>125.074000003956</v>
-      </c>
-      <c r="S20">
-        <v>0.02028329990040451</v>
-      </c>
-      <c r="T20">
-        <v>0.0202832999004045</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G21">
-        <v>27.476122</v>
-      </c>
-      <c r="H21">
-        <v>82.428366</v>
-      </c>
-      <c r="I21">
-        <v>0.5864592421494386</v>
-      </c>
-      <c r="J21">
-        <v>0.5864592421494386</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>6.223791000000001</v>
-      </c>
-      <c r="N21">
-        <v>18.671373</v>
-      </c>
-      <c r="O21">
-        <v>0.4255853636388005</v>
-      </c>
-      <c r="P21">
-        <v>0.4255853636388005</v>
-      </c>
-      <c r="Q21">
-        <v>171.005640818502</v>
-      </c>
-      <c r="R21">
-        <v>1539.050767366518</v>
-      </c>
-      <c r="S21">
-        <v>0.2495884698295042</v>
-      </c>
-      <c r="T21">
-        <v>0.2495884698295041</v>
+        <v>0.002861236826215158</v>
       </c>
     </row>
   </sheetData>
